--- a/BalanceSheet/ELAN_bal.xlsx
+++ b/BalanceSheet/ELAN_bal.xlsx
@@ -1429,19 +1429,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>35000000.0</v>
+        <v>900000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-81400000.0</v>
+        <v>823000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-53300000.0</v>
+        <v>66000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-25100000.0</v>
+        <v>90000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-14800000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>81100000.0</v>
